--- a/Develop/영상처리.xlsx
+++ b/Develop/영상처리.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bjleh\PycharmProjects\SmartSolver\Develop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\users\sunsky\Documents\GitHub\SmartSolver\Develop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="11280" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="11280"/>
   </bookViews>
   <sheets>
     <sheet name="영상" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">영상!$A$1:$J$415</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1702" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1795" uniqueCount="462">
   <si>
     <t>기하와벡터</t>
   </si>
@@ -1321,12 +1321,145 @@
   <si>
     <t>calculated</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1345b90df4ffb49136955c5cc97842c20dc35e6eae4eca2df8515a5497dc3e90</t>
+  </si>
+  <si>
+    <t>78c9c5c700f07f79fded1df417dd2104ca1018c82e748123d95da6203eb91c00</t>
+  </si>
+  <si>
+    <t>수학(상)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쎈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미적분I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블랙라벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>990b722c5a0cbb78cd689bc8d43f24fa8cef902ce6990ea523773c2726785ccd</t>
+  </si>
+  <si>
+    <t>bb8b17ad405a91337d88f13a1cfaeb24f07739c4e8c9d22d2bff35518b9c4959</t>
+  </si>
+  <si>
+    <t>82f9bfe4cdbcd1da8537ae273dce8ec1e0b7ddc1140849676f6346089de1cf33</t>
+  </si>
+  <si>
+    <t>099a119b36ae14d9bfb8adada51eeee18f6458b480198ebaf59d01479bb212f5</t>
+  </si>
+  <si>
+    <t>기하와벡터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e5d378fa04d50dce08558e202001151b1bf3656cf67832c184b86f8453feb247</t>
+  </si>
+  <si>
+    <t>8696af3da1ab3afabb6f0b008a7092c0bfe92a689bd4b66067be62226ba1c0ce</t>
+  </si>
+  <si>
+    <t>4e9ed3ffb712168759bc3666c8840a3908a7672813c6241bac609cbe88ca5f58</t>
+  </si>
+  <si>
+    <t>a06ebf7264c4c6f32871ad433aa6f3653b6fd970620054259ad173af22f63d84</t>
+  </si>
+  <si>
+    <t>5eb6a2aa2b4a3d3ba9988931cf2b60a00a7a242982b1e4b7b5f6223ea9d7ff3c</t>
+  </si>
+  <si>
+    <t>RPM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d7f818d525ed3970dc35e1df0bdd939c7b483c92cb59f7d280f0fe3ab5f0f623</t>
+  </si>
+  <si>
+    <t>c8982e4474d3f9758922a4ab9b37379ac93543dfa42b427d0f3d374d6bf21f6f</t>
+  </si>
+  <si>
+    <t>마플수능기출총정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a49f5d70002c165450e2a8d9fba9f22f8d847e9f3b2da59047ba29ce44b9f5d3</t>
+  </si>
+  <si>
+    <t>ed9b1f65186a2e9e97c7491f57b87acb374e3305c58f26252a4835394119847d</t>
+  </si>
+  <si>
+    <t>9500c3c8a1ab8c16278f669316b73dfaf70d0ad33afe7e37996081a4687cf47d</t>
+  </si>
+  <si>
+    <t>879c2cd4bb31a76c6b557f277082eb3d69021593788c1a6877e22a89cd1a1c20</t>
+  </si>
+  <si>
+    <t>b32479ed4b9dd632c4040c85ef594952e8e6541a8b8fd77f170c0af9af19d047</t>
+  </si>
+  <si>
+    <t>a3155a308e461d9f8ac7b4d8861bae4d881bfe2519ffd097af4eccb6b6ef91c2</t>
+  </si>
+  <si>
+    <t>4c10993e7da9e44dd51a1f03f6d3899273f8b8ef1b8717e911257b740d8e0937</t>
+  </si>
+  <si>
+    <t>a25c6067040a77969238d0d970308d3edd1eadf1fdfbef6da63633c10eb773fd</t>
+  </si>
+  <si>
+    <t>5fb8beb310268c334dcd208ba68d4aecad3447f3900aabad1b99577a1f9f3310</t>
+  </si>
+  <si>
+    <t>83e042756508d230e47eddd4a85b1a663e546633caa5a7466b7e7e18895567b3</t>
+  </si>
+  <si>
+    <t>확률과통계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쎈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8739e49079920ec6e326da7a513291d828a91537bfba0c1da191e7718dc966ff</t>
+  </si>
+  <si>
+    <t>3199b5cf92d12f27b7255fa3a06c41e494843c4c5103936d528abf6d7874c030</t>
+  </si>
+  <si>
+    <t>6bf4e1259b1c24b8fe5eb1c193b518c41eaf03f0d2aaa6c693eb6bc3c8f90d81</t>
+  </si>
+  <si>
+    <t>0b414dee00db020ff3ce5fc275fb78fa739dbba609174e5782a3107e2ef74d7c</t>
+  </si>
+  <si>
+    <t>791ef9303aec68a5c8230d36eb009c27aaf71fd24f7eea0b3edacf12c062cf78</t>
+  </si>
+  <si>
+    <t>84d67fbdc587178f234a36218dd4c028680dacfba57c3536e070f1cbed7136bf</t>
+  </si>
+  <si>
+    <t>434aaa481b28a9b1b0d57d6fac60a47268c599763cef119327f20a69c2ec09a3</t>
+  </si>
+  <si>
+    <t>9e80d1e5e892ffeb560ecc88b35c2e091df3cd6202ca5f1564472c55fb6d46c0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1699,10 +1832,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J415"/>
+  <dimension ref="A1:J446"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A429" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A447" sqref="A447"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1711,6 +1845,7 @@
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.125" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="9" max="9" width="12.625" customWidth="1"/>
     <col min="10" max="10" width="72.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14490,7 +14625,7 @@
         <v>2</v>
       </c>
       <c r="E386" t="str">
-        <f t="shared" ref="E386:E449" si="6">C386&amp;D386</f>
+        <f t="shared" ref="E386:E415" si="6">C386&amp;D386</f>
         <v>2쎈</v>
       </c>
       <c r="F386">
@@ -15463,6 +15598,818 @@
       <c r="J415" t="str">
         <f>VLOOKUP(A415,해쉬!E:G,3,0)</f>
         <v>01c5546469bcc73e09b48a98d09690ce7e4ae2673cfba11a72b22a1c9ddd7f4b</v>
+      </c>
+    </row>
+    <row r="416" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A416">
+        <v>415</v>
+      </c>
+      <c r="B416" t="s">
+        <v>61</v>
+      </c>
+      <c r="C416">
+        <v>1</v>
+      </c>
+      <c r="D416" t="s">
+        <v>2</v>
+      </c>
+      <c r="F416">
+        <v>1</v>
+      </c>
+      <c r="H416">
+        <v>229</v>
+      </c>
+      <c r="I416">
+        <v>353</v>
+      </c>
+      <c r="J416" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="417" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A417">
+        <v>416</v>
+      </c>
+      <c r="B417" t="s">
+        <v>423</v>
+      </c>
+      <c r="C417">
+        <v>8</v>
+      </c>
+      <c r="D417" t="s">
+        <v>424</v>
+      </c>
+      <c r="F417">
+        <v>63</v>
+      </c>
+      <c r="H417">
+        <v>683</v>
+      </c>
+      <c r="I417">
+        <v>354</v>
+      </c>
+      <c r="J417" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="418" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A418">
+        <v>417</v>
+      </c>
+      <c r="B418" t="s">
+        <v>425</v>
+      </c>
+      <c r="C418">
+        <v>3</v>
+      </c>
+      <c r="D418" t="s">
+        <v>426</v>
+      </c>
+      <c r="F418">
+        <v>27</v>
+      </c>
+      <c r="G418">
+        <v>24</v>
+      </c>
+      <c r="H418">
+        <v>3</v>
+      </c>
+      <c r="I418">
+        <v>369</v>
+      </c>
+      <c r="J418" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="419" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A419">
+        <v>418</v>
+      </c>
+      <c r="B419" t="s">
+        <v>425</v>
+      </c>
+      <c r="C419">
+        <v>3</v>
+      </c>
+      <c r="D419" t="s">
+        <v>426</v>
+      </c>
+      <c r="F419">
+        <v>27</v>
+      </c>
+      <c r="G419">
+        <v>70</v>
+      </c>
+      <c r="H419">
+        <v>2</v>
+      </c>
+      <c r="I419">
+        <v>370</v>
+      </c>
+      <c r="J419" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="420" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A420">
+        <v>419</v>
+      </c>
+      <c r="B420" t="s">
+        <v>425</v>
+      </c>
+      <c r="C420">
+        <v>3</v>
+      </c>
+      <c r="D420" t="s">
+        <v>4</v>
+      </c>
+      <c r="F420">
+        <v>9</v>
+      </c>
+      <c r="H420">
+        <v>358</v>
+      </c>
+      <c r="I420">
+        <v>371</v>
+      </c>
+      <c r="J420" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="421" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A421">
+        <v>420</v>
+      </c>
+      <c r="B421" t="s">
+        <v>425</v>
+      </c>
+      <c r="C421">
+        <v>3</v>
+      </c>
+      <c r="D421" t="s">
+        <v>4</v>
+      </c>
+      <c r="F421">
+        <v>9</v>
+      </c>
+      <c r="H421">
+        <v>368</v>
+      </c>
+      <c r="I421">
+        <v>372</v>
+      </c>
+      <c r="J421" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="422" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A422">
+        <v>421</v>
+      </c>
+      <c r="B422" t="s">
+        <v>431</v>
+      </c>
+      <c r="C422">
+        <v>6</v>
+      </c>
+      <c r="D422" t="s">
+        <v>432</v>
+      </c>
+      <c r="F422">
+        <v>24</v>
+      </c>
+      <c r="H422">
+        <v>73</v>
+      </c>
+      <c r="I422">
+        <v>373</v>
+      </c>
+      <c r="J422" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="423" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A423">
+        <v>422</v>
+      </c>
+      <c r="B423" t="s">
+        <v>66</v>
+      </c>
+      <c r="C423">
+        <v>6</v>
+      </c>
+      <c r="D423" t="s">
+        <v>424</v>
+      </c>
+      <c r="F423">
+        <v>6</v>
+      </c>
+      <c r="H423">
+        <v>200</v>
+      </c>
+      <c r="I423">
+        <v>351</v>
+      </c>
+      <c r="J423" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="424" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A424">
+        <v>423</v>
+      </c>
+      <c r="B424" t="s">
+        <v>66</v>
+      </c>
+      <c r="C424">
+        <v>6</v>
+      </c>
+      <c r="D424" t="s">
+        <v>424</v>
+      </c>
+      <c r="F424">
+        <v>6</v>
+      </c>
+      <c r="H424">
+        <v>204</v>
+      </c>
+      <c r="I424">
+        <v>366</v>
+      </c>
+      <c r="J424" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="425" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A425">
+        <v>424</v>
+      </c>
+      <c r="B425" t="s">
+        <v>63</v>
+      </c>
+      <c r="C425">
+        <v>3</v>
+      </c>
+      <c r="D425" t="s">
+        <v>4</v>
+      </c>
+      <c r="F425">
+        <v>9</v>
+      </c>
+      <c r="H425">
+        <v>65</v>
+      </c>
+      <c r="I425">
+        <v>375</v>
+      </c>
+      <c r="J425" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="426" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A426">
+        <v>425</v>
+      </c>
+      <c r="B426" t="s">
+        <v>63</v>
+      </c>
+      <c r="C426">
+        <v>3</v>
+      </c>
+      <c r="D426" t="s">
+        <v>4</v>
+      </c>
+      <c r="F426">
+        <v>9</v>
+      </c>
+      <c r="H426">
+        <v>86</v>
+      </c>
+      <c r="I426">
+        <v>376</v>
+      </c>
+      <c r="J426" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="427" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A427">
+        <v>426</v>
+      </c>
+      <c r="B427" t="s">
+        <v>64</v>
+      </c>
+      <c r="C427">
+        <v>4</v>
+      </c>
+      <c r="D427" t="s">
+        <v>438</v>
+      </c>
+      <c r="F427">
+        <v>22</v>
+      </c>
+      <c r="H427">
+        <v>1292</v>
+      </c>
+      <c r="I427">
+        <v>377</v>
+      </c>
+      <c r="J427" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="428" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A428">
+        <v>427</v>
+      </c>
+      <c r="B428" t="s">
+        <v>64</v>
+      </c>
+      <c r="C428">
+        <v>4</v>
+      </c>
+      <c r="D428" t="s">
+        <v>438</v>
+      </c>
+      <c r="F428">
+        <v>22</v>
+      </c>
+      <c r="H428">
+        <v>1297</v>
+      </c>
+      <c r="I428">
+        <v>378</v>
+      </c>
+      <c r="J428" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="429" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A429">
+        <v>428</v>
+      </c>
+      <c r="B429" t="s">
+        <v>64</v>
+      </c>
+      <c r="C429">
+        <v>4</v>
+      </c>
+      <c r="D429" t="s">
+        <v>441</v>
+      </c>
+      <c r="F429">
+        <v>45</v>
+      </c>
+      <c r="H429">
+        <v>1418</v>
+      </c>
+      <c r="I429">
+        <v>368</v>
+      </c>
+      <c r="J429" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="430" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A430">
+        <v>429</v>
+      </c>
+      <c r="B430" t="s">
+        <v>64</v>
+      </c>
+      <c r="C430">
+        <v>4</v>
+      </c>
+      <c r="D430" t="s">
+        <v>424</v>
+      </c>
+      <c r="F430">
+        <v>4</v>
+      </c>
+      <c r="H430">
+        <v>1334</v>
+      </c>
+      <c r="I430">
+        <v>379</v>
+      </c>
+      <c r="J430" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="431" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A431">
+        <v>430</v>
+      </c>
+      <c r="B431" t="s">
+        <v>62</v>
+      </c>
+      <c r="C431">
+        <v>2</v>
+      </c>
+      <c r="D431" t="s">
+        <v>424</v>
+      </c>
+      <c r="F431">
+        <v>2</v>
+      </c>
+      <c r="H431">
+        <v>872</v>
+      </c>
+      <c r="I431">
+        <v>380</v>
+      </c>
+      <c r="J431" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="432" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A432">
+        <v>431</v>
+      </c>
+      <c r="B432" t="s">
+        <v>62</v>
+      </c>
+      <c r="C432">
+        <v>2</v>
+      </c>
+      <c r="D432" t="s">
+        <v>424</v>
+      </c>
+      <c r="F432">
+        <v>2</v>
+      </c>
+      <c r="H432">
+        <v>893</v>
+      </c>
+      <c r="I432">
+        <v>381</v>
+      </c>
+      <c r="J432" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="433" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A433">
+        <v>432</v>
+      </c>
+      <c r="B433" t="s">
+        <v>62</v>
+      </c>
+      <c r="C433">
+        <v>2</v>
+      </c>
+      <c r="D433" t="s">
+        <v>424</v>
+      </c>
+      <c r="F433">
+        <v>2</v>
+      </c>
+      <c r="H433">
+        <v>1461</v>
+      </c>
+      <c r="I433">
+        <v>382</v>
+      </c>
+      <c r="J433" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="434" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A434">
+        <v>433</v>
+      </c>
+      <c r="B434" t="s">
+        <v>62</v>
+      </c>
+      <c r="C434">
+        <v>2</v>
+      </c>
+      <c r="D434" t="s">
+        <v>424</v>
+      </c>
+      <c r="F434">
+        <v>2</v>
+      </c>
+      <c r="H434">
+        <v>1079</v>
+      </c>
+      <c r="I434">
+        <v>383</v>
+      </c>
+      <c r="J434" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="435" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A435">
+        <v>434</v>
+      </c>
+      <c r="B435" t="s">
+        <v>62</v>
+      </c>
+      <c r="C435">
+        <v>2</v>
+      </c>
+      <c r="D435" t="s">
+        <v>424</v>
+      </c>
+      <c r="F435">
+        <v>2</v>
+      </c>
+      <c r="H435">
+        <v>1082</v>
+      </c>
+      <c r="I435">
+        <v>384</v>
+      </c>
+      <c r="J435" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="436" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A436">
+        <v>435</v>
+      </c>
+      <c r="B436" t="s">
+        <v>62</v>
+      </c>
+      <c r="C436">
+        <v>2</v>
+      </c>
+      <c r="D436" t="s">
+        <v>424</v>
+      </c>
+      <c r="F436">
+        <v>2</v>
+      </c>
+      <c r="H436">
+        <v>1083</v>
+      </c>
+      <c r="I436">
+        <v>385</v>
+      </c>
+      <c r="J436" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="437" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A437">
+        <v>436</v>
+      </c>
+      <c r="B437" t="s">
+        <v>62</v>
+      </c>
+      <c r="C437">
+        <v>2</v>
+      </c>
+      <c r="D437" t="s">
+        <v>424</v>
+      </c>
+      <c r="F437">
+        <v>2</v>
+      </c>
+      <c r="H437">
+        <v>1084</v>
+      </c>
+      <c r="I437">
+        <v>386</v>
+      </c>
+      <c r="J437" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="438" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A438">
+        <v>437</v>
+      </c>
+      <c r="B438" t="s">
+        <v>62</v>
+      </c>
+      <c r="C438">
+        <v>2</v>
+      </c>
+      <c r="D438" t="s">
+        <v>424</v>
+      </c>
+      <c r="F438">
+        <v>2</v>
+      </c>
+      <c r="H438">
+        <v>1085</v>
+      </c>
+      <c r="I438">
+        <v>387</v>
+      </c>
+      <c r="J438" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="439" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A439">
+        <v>438</v>
+      </c>
+      <c r="B439" t="s">
+        <v>452</v>
+      </c>
+      <c r="C439">
+        <v>5</v>
+      </c>
+      <c r="D439" t="s">
+        <v>453</v>
+      </c>
+      <c r="F439">
+        <v>5</v>
+      </c>
+      <c r="H439">
+        <v>627</v>
+      </c>
+      <c r="I439">
+        <v>388</v>
+      </c>
+      <c r="J439" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="440" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A440">
+        <v>439</v>
+      </c>
+      <c r="B440" t="s">
+        <v>452</v>
+      </c>
+      <c r="C440">
+        <v>5</v>
+      </c>
+      <c r="D440" t="s">
+        <v>453</v>
+      </c>
+      <c r="F440">
+        <v>5</v>
+      </c>
+      <c r="H440">
+        <v>597</v>
+      </c>
+      <c r="I440">
+        <v>389</v>
+      </c>
+      <c r="J440" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="441" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A441">
+        <v>440</v>
+      </c>
+      <c r="B441" t="s">
+        <v>452</v>
+      </c>
+      <c r="C441">
+        <v>5</v>
+      </c>
+      <c r="D441" t="s">
+        <v>453</v>
+      </c>
+      <c r="F441">
+        <v>5</v>
+      </c>
+      <c r="H441">
+        <v>533</v>
+      </c>
+      <c r="I441">
+        <v>391</v>
+      </c>
+      <c r="J441" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="442" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A442">
+        <v>441</v>
+      </c>
+      <c r="B442" t="s">
+        <v>452</v>
+      </c>
+      <c r="C442">
+        <v>5</v>
+      </c>
+      <c r="D442" t="s">
+        <v>453</v>
+      </c>
+      <c r="F442">
+        <v>5</v>
+      </c>
+      <c r="H442">
+        <v>528</v>
+      </c>
+      <c r="I442">
+        <v>392</v>
+      </c>
+      <c r="J442" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="443" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A443">
+        <v>442</v>
+      </c>
+      <c r="B443" t="s">
+        <v>452</v>
+      </c>
+      <c r="C443">
+        <v>5</v>
+      </c>
+      <c r="D443" t="s">
+        <v>453</v>
+      </c>
+      <c r="F443">
+        <v>5</v>
+      </c>
+      <c r="H443">
+        <v>515</v>
+      </c>
+      <c r="I443">
+        <v>393</v>
+      </c>
+      <c r="J443" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="444" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A444">
+        <v>443</v>
+      </c>
+      <c r="B444" t="s">
+        <v>452</v>
+      </c>
+      <c r="C444">
+        <v>5</v>
+      </c>
+      <c r="D444" t="s">
+        <v>453</v>
+      </c>
+      <c r="F444">
+        <v>5</v>
+      </c>
+      <c r="H444">
+        <v>514</v>
+      </c>
+      <c r="I444">
+        <v>394</v>
+      </c>
+      <c r="J444" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="445" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A445">
+        <v>444</v>
+      </c>
+      <c r="B445" t="s">
+        <v>452</v>
+      </c>
+      <c r="C445">
+        <v>5</v>
+      </c>
+      <c r="D445" t="s">
+        <v>453</v>
+      </c>
+      <c r="F445">
+        <v>5</v>
+      </c>
+      <c r="H445">
+        <v>501</v>
+      </c>
+      <c r="I445">
+        <v>367</v>
+      </c>
+      <c r="J445" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="446" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A446">
+        <v>445</v>
+      </c>
+      <c r="B446" t="s">
+        <v>452</v>
+      </c>
+      <c r="C446">
+        <v>5</v>
+      </c>
+      <c r="D446" t="s">
+        <v>453</v>
+      </c>
+      <c r="F446">
+        <v>5</v>
+      </c>
+      <c r="H446">
+        <v>198</v>
+      </c>
+      <c r="I446">
+        <v>395</v>
+      </c>
+      <c r="J446" t="s">
+        <v>461</v>
       </c>
     </row>
   </sheetData>
@@ -15473,7 +16420,7 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -19185,10 +20132,10 @@
   <dimension ref="A1:G329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="6" ySplit="16" topLeftCell="G17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="16" topLeftCell="G326" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="A329" sqref="A329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -27437,7 +28384,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -27532,7 +28479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>

--- a/Develop/영상처리.xlsx
+++ b/Develop/영상처리.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1795" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="469">
   <si>
     <t>기하와벡터</t>
   </si>
@@ -1454,6 +1454,28 @@
   </si>
   <si>
     <t>9e80d1e5e892ffeb560ecc88b35c2e091df3cd6202ca5f1564472c55fb6d46c0</t>
+  </si>
+  <si>
+    <t>라이트쎈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>87fe58468680065426298bab3f56645351526712b2231b496f1dcec194e1d6ec</t>
+  </si>
+  <si>
+    <t>a6af0fc80df08b4a7c932102e3e65f007f9532e86f8592f691c82b186c6f4efc</t>
+  </si>
+  <si>
+    <t>24737db55698b31c42671d4da8cb61b5866d0cb4d7988b86a8c953d0b5063b89</t>
+  </si>
+  <si>
+    <t>e5f571efea1c1c9c53b0c5f5b7dd46e14ef52316e6bdc35854c14fc8d2a45e09</t>
+  </si>
+  <si>
+    <t>3ac5dda37a9b5887fd1bfd8a1cbbc2aea2cce006f530bada9e0ca3e9a51f0f48</t>
+  </si>
+  <si>
+    <t>f0a459424ca5ffdc98f50d55f283acbe6cf07e927f5ebcfa9eedfd445eeb1b6f</t>
   </si>
 </sst>
 </file>
@@ -1832,11 +1854,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J446"/>
+  <dimension ref="A1:J452"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A429" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A447" sqref="A447"/>
+      <pane ySplit="1" topLeftCell="A435" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J452" sqref="J452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16410,6 +16432,162 @@
       </c>
       <c r="J446" t="s">
         <v>461</v>
+      </c>
+    </row>
+    <row r="447" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A447">
+        <v>446</v>
+      </c>
+      <c r="B447" t="s">
+        <v>68</v>
+      </c>
+      <c r="C447">
+        <v>8</v>
+      </c>
+      <c r="D447" t="s">
+        <v>453</v>
+      </c>
+      <c r="F447">
+        <v>63</v>
+      </c>
+      <c r="H447">
+        <v>483</v>
+      </c>
+      <c r="I447">
+        <v>396</v>
+      </c>
+      <c r="J447" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="448" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A448">
+        <v>447</v>
+      </c>
+      <c r="B448" t="s">
+        <v>68</v>
+      </c>
+      <c r="C448">
+        <v>8</v>
+      </c>
+      <c r="D448" t="s">
+        <v>453</v>
+      </c>
+      <c r="F448">
+        <v>63</v>
+      </c>
+      <c r="H448">
+        <v>487</v>
+      </c>
+      <c r="I448">
+        <v>397</v>
+      </c>
+      <c r="J448" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="449" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A449">
+        <v>448</v>
+      </c>
+      <c r="B449" t="s">
+        <v>63</v>
+      </c>
+      <c r="C449">
+        <v>3</v>
+      </c>
+      <c r="D449" t="s">
+        <v>462</v>
+      </c>
+      <c r="F449">
+        <v>9</v>
+      </c>
+      <c r="H449">
+        <v>418</v>
+      </c>
+      <c r="I449">
+        <v>400</v>
+      </c>
+      <c r="J449" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="450" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A450">
+        <v>449</v>
+      </c>
+      <c r="B450" t="s">
+        <v>63</v>
+      </c>
+      <c r="C450">
+        <v>3</v>
+      </c>
+      <c r="D450" t="s">
+        <v>462</v>
+      </c>
+      <c r="F450">
+        <v>9</v>
+      </c>
+      <c r="H450">
+        <v>415</v>
+      </c>
+      <c r="I450">
+        <v>401</v>
+      </c>
+      <c r="J450" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="451" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A451">
+        <v>450</v>
+      </c>
+      <c r="B451" t="s">
+        <v>63</v>
+      </c>
+      <c r="C451">
+        <v>3</v>
+      </c>
+      <c r="D451" t="s">
+        <v>462</v>
+      </c>
+      <c r="F451">
+        <v>9</v>
+      </c>
+      <c r="H451">
+        <v>422</v>
+      </c>
+      <c r="I451">
+        <v>402</v>
+      </c>
+      <c r="J451" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="452" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A452">
+        <v>451</v>
+      </c>
+      <c r="B452" t="s">
+        <v>63</v>
+      </c>
+      <c r="C452">
+        <v>3</v>
+      </c>
+      <c r="D452" t="s">
+        <v>462</v>
+      </c>
+      <c r="F452">
+        <v>9</v>
+      </c>
+      <c r="H452">
+        <v>426</v>
+      </c>
+      <c r="I452">
+        <v>403</v>
+      </c>
+      <c r="J452" t="s">
+        <v>468</v>
       </c>
     </row>
   </sheetData>

--- a/Develop/영상처리.xlsx
+++ b/Develop/영상처리.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1819" uniqueCount="474">
   <si>
     <t>기하와벡터</t>
   </si>
@@ -1476,6 +1476,24 @@
   </si>
   <si>
     <t>f0a459424ca5ffdc98f50d55f283acbe6cf07e927f5ebcfa9eedfd445eeb1b6f</t>
+  </si>
+  <si>
+    <t>RPM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30f56ae0367c64e820b7f3c9fcbe3496c3a7379aed75300330b6c1ef49dbb19f</t>
+  </si>
+  <si>
+    <t>미적분I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쎈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6407778d417ad4d98da0e4c53412a75af642090967151eac14cdab8390d60074</t>
   </si>
 </sst>
 </file>
@@ -1854,11 +1872,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J452"/>
+  <dimension ref="A1:J454"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A435" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J452" sqref="J452"/>
+      <pane ySplit="1" topLeftCell="A438" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A455" sqref="A455"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16588,6 +16606,58 @@
       </c>
       <c r="J452" t="s">
         <v>468</v>
+      </c>
+    </row>
+    <row r="453" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A453">
+        <v>452</v>
+      </c>
+      <c r="B453" t="s">
+        <v>66</v>
+      </c>
+      <c r="C453">
+        <v>6</v>
+      </c>
+      <c r="D453" t="s">
+        <v>469</v>
+      </c>
+      <c r="F453">
+        <v>24</v>
+      </c>
+      <c r="H453">
+        <v>40</v>
+      </c>
+      <c r="I453">
+        <v>404</v>
+      </c>
+      <c r="J453" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="454" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A454">
+        <v>453</v>
+      </c>
+      <c r="B454" t="s">
+        <v>471</v>
+      </c>
+      <c r="C454">
+        <v>3</v>
+      </c>
+      <c r="D454" t="s">
+        <v>472</v>
+      </c>
+      <c r="F454">
+        <v>3</v>
+      </c>
+      <c r="H454">
+        <v>307</v>
+      </c>
+      <c r="I454">
+        <v>412</v>
+      </c>
+      <c r="J454" t="s">
+        <v>473</v>
       </c>
     </row>
   </sheetData>

--- a/Develop/영상처리.xlsx
+++ b/Develop/영상처리.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1819" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="492">
   <si>
     <t>기하와벡터</t>
   </si>
@@ -1494,6 +1494,65 @@
   </si>
   <si>
     <t>6407778d417ad4d98da0e4c53412a75af642090967151eac14cdab8390d60074</t>
+  </si>
+  <si>
+    <t>d962065ad4c2e01df7ce06c5e76e270f1ea95f1c5c3912c82dbca8ea2f2c37c1</t>
+  </si>
+  <si>
+    <t>a107358d312130663f9696bfff20bf8d503aba4ec8180e76d6ea6766a0d6c8fb</t>
+  </si>
+  <si>
+    <t>fc6aa2216937cb49ce629511a147924bc92cf65a3272b5c64867eb1fdb7c0d02</t>
+  </si>
+  <si>
+    <t>미적분II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블랙라벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>973dfa1569bc3831cfddeb36ae5190c6aab19a9590298ed8eadd35b0e0bb368f</t>
+  </si>
+  <si>
+    <t>마플수능기출총정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f0698bb1adfee7b96f9f0b0b93dbb4e66a87e1059a943d5cf4ee1430167607cb</t>
+  </si>
+  <si>
+    <t>cd7df6a7e9ab62956067151212a46bb2bc391021eb2f9e3cc1a36b75a6abd183</t>
+  </si>
+  <si>
+    <t>확률과통계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쎈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0360aabfb482f9632e180e5c4380517fd1db4bd8e24e67832a7cd24368f5edc4</t>
+  </si>
+  <si>
+    <t>e018dd4915958918719a10eee2237c479e469b0ec24cc97a36eb889b6d80efd6</t>
+  </si>
+  <si>
+    <t>f5b32f00fe05eee941f38440cb4208f97bd5af9e5613e7386d60666548060d23</t>
+  </si>
+  <si>
+    <t>dc341dc8ceff4d96186c63b4a32e70aa9f5097b4244a9510cefb8b6284a89479</t>
+  </si>
+  <si>
+    <t>a7f7e4c576001dbbbb361c1276aaee7e6d18da023399bd82bcef6d394fd2db6c</t>
+  </si>
+  <si>
+    <t>5968f5ec4685c956e0eb7814a46312f448fa8c78c3e393bdb2b04d3f69b8b938</t>
+  </si>
+  <si>
+    <t>62b0e17cb06928eec8d1bc1f8317f6fd1a88560869ed090c801c34e81c8727b4</t>
   </si>
 </sst>
 </file>
@@ -1872,11 +1931,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J454"/>
+  <dimension ref="A1:J467"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A438" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A455" sqref="A455"/>
+      <pane ySplit="1" topLeftCell="A451" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A468" sqref="A468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16658,6 +16717,347 @@
       </c>
       <c r="J454" t="s">
         <v>473</v>
+      </c>
+    </row>
+    <row r="455" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A455">
+        <v>454</v>
+      </c>
+      <c r="B455" t="s">
+        <v>66</v>
+      </c>
+      <c r="C455">
+        <v>6</v>
+      </c>
+      <c r="D455" t="s">
+        <v>432</v>
+      </c>
+      <c r="F455">
+        <v>24</v>
+      </c>
+      <c r="H455">
+        <v>246</v>
+      </c>
+      <c r="I455">
+        <v>414</v>
+      </c>
+      <c r="J455" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="456" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A456">
+        <v>455</v>
+      </c>
+      <c r="B456" t="s">
+        <v>68</v>
+      </c>
+      <c r="C456">
+        <v>8</v>
+      </c>
+      <c r="D456" t="s">
+        <v>424</v>
+      </c>
+      <c r="F456">
+        <v>63</v>
+      </c>
+      <c r="H456">
+        <v>849</v>
+      </c>
+      <c r="I456">
+        <v>417</v>
+      </c>
+      <c r="J456" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="457" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A457">
+        <v>456</v>
+      </c>
+      <c r="B457" t="s">
+        <v>68</v>
+      </c>
+      <c r="C457">
+        <v>8</v>
+      </c>
+      <c r="D457" t="s">
+        <v>424</v>
+      </c>
+      <c r="F457">
+        <v>63</v>
+      </c>
+      <c r="H457">
+        <v>850</v>
+      </c>
+      <c r="I457">
+        <v>416</v>
+      </c>
+      <c r="J457" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="458" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A458">
+        <v>457</v>
+      </c>
+      <c r="B458" t="s">
+        <v>477</v>
+      </c>
+      <c r="C458">
+        <v>4</v>
+      </c>
+      <c r="D458" t="s">
+        <v>478</v>
+      </c>
+      <c r="F458">
+        <v>28</v>
+      </c>
+      <c r="G458">
+        <v>40</v>
+      </c>
+      <c r="H458">
+        <v>9</v>
+      </c>
+      <c r="I458">
+        <v>425</v>
+      </c>
+      <c r="J458" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="459" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A459">
+        <v>458</v>
+      </c>
+      <c r="B459" t="s">
+        <v>63</v>
+      </c>
+      <c r="C459">
+        <v>3</v>
+      </c>
+      <c r="D459" t="s">
+        <v>480</v>
+      </c>
+      <c r="F459">
+        <v>44</v>
+      </c>
+      <c r="H459">
+        <v>585</v>
+      </c>
+      <c r="I459">
+        <v>420</v>
+      </c>
+      <c r="J459" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="460" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A460">
+        <v>459</v>
+      </c>
+      <c r="B460" t="s">
+        <v>63</v>
+      </c>
+      <c r="C460">
+        <v>3</v>
+      </c>
+      <c r="D460" t="s">
+        <v>480</v>
+      </c>
+      <c r="F460">
+        <v>44</v>
+      </c>
+      <c r="H460">
+        <v>960</v>
+      </c>
+      <c r="I460">
+        <v>421</v>
+      </c>
+      <c r="J460" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="461" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A461">
+        <v>460</v>
+      </c>
+      <c r="B461" t="s">
+        <v>483</v>
+      </c>
+      <c r="C461">
+        <v>5</v>
+      </c>
+      <c r="D461" t="s">
+        <v>480</v>
+      </c>
+      <c r="F461">
+        <v>46</v>
+      </c>
+      <c r="H461">
+        <v>97</v>
+      </c>
+      <c r="I461">
+        <v>423</v>
+      </c>
+      <c r="J461" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="462" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A462">
+        <v>461</v>
+      </c>
+      <c r="B462" t="s">
+        <v>483</v>
+      </c>
+      <c r="C462">
+        <v>5</v>
+      </c>
+      <c r="D462" t="s">
+        <v>480</v>
+      </c>
+      <c r="F462">
+        <v>46</v>
+      </c>
+      <c r="H462">
+        <v>306</v>
+      </c>
+      <c r="I462">
+        <v>424</v>
+      </c>
+      <c r="J462" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="463" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A463">
+        <v>462</v>
+      </c>
+      <c r="B463" t="s">
+        <v>477</v>
+      </c>
+      <c r="C463">
+        <v>4</v>
+      </c>
+      <c r="D463" t="s">
+        <v>484</v>
+      </c>
+      <c r="F463">
+        <v>4</v>
+      </c>
+      <c r="H463">
+        <v>44</v>
+      </c>
+      <c r="I463">
+        <v>426</v>
+      </c>
+      <c r="J463" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="464" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A464">
+        <v>463</v>
+      </c>
+      <c r="B464" t="s">
+        <v>477</v>
+      </c>
+      <c r="C464">
+        <v>4</v>
+      </c>
+      <c r="D464" t="s">
+        <v>484</v>
+      </c>
+      <c r="F464">
+        <v>4</v>
+      </c>
+      <c r="H464">
+        <v>48</v>
+      </c>
+      <c r="I464">
+        <v>427</v>
+      </c>
+      <c r="J464" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="465" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A465">
+        <v>464</v>
+      </c>
+      <c r="B465" t="s">
+        <v>477</v>
+      </c>
+      <c r="C465">
+        <v>4</v>
+      </c>
+      <c r="D465" t="s">
+        <v>484</v>
+      </c>
+      <c r="F465">
+        <v>4</v>
+      </c>
+      <c r="H465">
+        <v>77</v>
+      </c>
+      <c r="I465">
+        <v>428</v>
+      </c>
+      <c r="J465" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="466" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A466">
+        <v>465</v>
+      </c>
+      <c r="B466" t="s">
+        <v>477</v>
+      </c>
+      <c r="C466">
+        <v>4</v>
+      </c>
+      <c r="D466" t="s">
+        <v>484</v>
+      </c>
+      <c r="F466">
+        <v>4</v>
+      </c>
+      <c r="H466">
+        <v>89</v>
+      </c>
+      <c r="I466">
+        <v>429</v>
+      </c>
+      <c r="J466" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="467" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A467">
+        <v>466</v>
+      </c>
+      <c r="B467" t="s">
+        <v>477</v>
+      </c>
+      <c r="C467">
+        <v>4</v>
+      </c>
+      <c r="D467" t="s">
+        <v>484</v>
+      </c>
+      <c r="F467">
+        <v>4</v>
+      </c>
+      <c r="H467">
+        <v>90</v>
+      </c>
+      <c r="I467">
+        <v>430</v>
+      </c>
+      <c r="J467" t="s">
+        <v>491</v>
       </c>
     </row>
   </sheetData>

--- a/Develop/영상처리.xlsx
+++ b/Develop/영상처리.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1867" uniqueCount="495">
   <si>
     <t>기하와벡터</t>
   </si>
@@ -1553,6 +1553,15 @@
   </si>
   <si>
     <t>62b0e17cb06928eec8d1bc1f8317f6fd1a88560869ed090c801c34e81c8727b4</t>
+  </si>
+  <si>
+    <t>eba10ae0e9b760bf86eaba260f6eb8df2373bd2efd275a4974b8b182387f86ff</t>
+  </si>
+  <si>
+    <t>9b3fa5098bfe8766cb79fb5d4809a8aa89f5b2cec60f27c767d718f1e4c061d3</t>
+  </si>
+  <si>
+    <t>e32400b64fabd03c90d9b0ec322c95b6f89ae0023454fd5c23b0ae22ec9a0c14</t>
   </si>
 </sst>
 </file>
@@ -1931,11 +1940,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J467"/>
+  <dimension ref="A1:J470"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A451" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A468" sqref="A468"/>
+      <pane ySplit="1" topLeftCell="A455" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J470" sqref="J470"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17058,6 +17067,84 @@
       </c>
       <c r="J467" t="s">
         <v>491</v>
+      </c>
+    </row>
+    <row r="468" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A468">
+        <v>467</v>
+      </c>
+      <c r="B468" t="s">
+        <v>64</v>
+      </c>
+      <c r="C468">
+        <v>4</v>
+      </c>
+      <c r="D468" t="s">
+        <v>424</v>
+      </c>
+      <c r="F468">
+        <v>4</v>
+      </c>
+      <c r="H468">
+        <v>95</v>
+      </c>
+      <c r="I468">
+        <v>431</v>
+      </c>
+      <c r="J468" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="469" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A469">
+        <v>468</v>
+      </c>
+      <c r="B469" t="s">
+        <v>64</v>
+      </c>
+      <c r="C469">
+        <v>4</v>
+      </c>
+      <c r="D469" t="s">
+        <v>424</v>
+      </c>
+      <c r="F469">
+        <v>4</v>
+      </c>
+      <c r="H469">
+        <v>101</v>
+      </c>
+      <c r="I469">
+        <v>432</v>
+      </c>
+      <c r="J469" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="470" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A470">
+        <v>469</v>
+      </c>
+      <c r="B470" t="s">
+        <v>64</v>
+      </c>
+      <c r="C470">
+        <v>4</v>
+      </c>
+      <c r="D470" t="s">
+        <v>424</v>
+      </c>
+      <c r="F470">
+        <v>4</v>
+      </c>
+      <c r="H470">
+        <v>168</v>
+      </c>
+      <c r="I470">
+        <v>433</v>
+      </c>
+      <c r="J470" t="s">
+        <v>494</v>
       </c>
     </row>
   </sheetData>

--- a/Develop/영상처리.xlsx
+++ b/Develop/영상처리.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1867" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="500">
   <si>
     <t>기하와벡터</t>
   </si>
@@ -1562,6 +1562,21 @@
   </si>
   <si>
     <t>e32400b64fabd03c90d9b0ec322c95b6f89ae0023454fd5c23b0ae22ec9a0c14</t>
+  </si>
+  <si>
+    <t>f31c982609189dbd1db2c2528d115b8ba128a592ed8bab31fbf4350c3662b1e0</t>
+  </si>
+  <si>
+    <t>195cb072d8111911c917d23f7e550e9adcea4cfbc472af2b889a95019b3cc4ab</t>
+  </si>
+  <si>
+    <t>6187f3b478d29339808d72e692960dcdf64aabffdd01a944f46a22dc33575db4</t>
+  </si>
+  <si>
+    <t>e953bf0f136112b1e149473de05bae0e0921a9dd998e7a701bb36a3c3206a798</t>
+  </si>
+  <si>
+    <t>54faea9b3eeffce2a5ea906fdd1232a52a55d57d993e5406a572b9a9ea2827d8</t>
   </si>
 </sst>
 </file>
@@ -1940,11 +1955,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J470"/>
+  <dimension ref="A1:J475"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A455" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J470" sqref="J470"/>
+      <pane ySplit="1" topLeftCell="A457" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A476" sqref="A476"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17145,6 +17160,136 @@
       </c>
       <c r="J470" t="s">
         <v>494</v>
+      </c>
+    </row>
+    <row r="471" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A471">
+        <v>470</v>
+      </c>
+      <c r="B471" t="s">
+        <v>64</v>
+      </c>
+      <c r="C471">
+        <v>4</v>
+      </c>
+      <c r="D471" t="s">
+        <v>424</v>
+      </c>
+      <c r="F471">
+        <v>4</v>
+      </c>
+      <c r="H471">
+        <v>178</v>
+      </c>
+      <c r="I471">
+        <v>436</v>
+      </c>
+      <c r="J471" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="472" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A472">
+        <v>471</v>
+      </c>
+      <c r="B472" t="s">
+        <v>64</v>
+      </c>
+      <c r="C472">
+        <v>4</v>
+      </c>
+      <c r="D472" t="s">
+        <v>424</v>
+      </c>
+      <c r="F472">
+        <v>4</v>
+      </c>
+      <c r="H472">
+        <v>180</v>
+      </c>
+      <c r="I472">
+        <v>437</v>
+      </c>
+      <c r="J472" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="473" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A473">
+        <v>472</v>
+      </c>
+      <c r="B473" t="s">
+        <v>64</v>
+      </c>
+      <c r="C473">
+        <v>4</v>
+      </c>
+      <c r="D473" t="s">
+        <v>424</v>
+      </c>
+      <c r="F473">
+        <v>4</v>
+      </c>
+      <c r="H473">
+        <v>196</v>
+      </c>
+      <c r="I473">
+        <v>438</v>
+      </c>
+      <c r="J473" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="474" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A474">
+        <v>473</v>
+      </c>
+      <c r="B474" t="s">
+        <v>64</v>
+      </c>
+      <c r="C474">
+        <v>4</v>
+      </c>
+      <c r="D474" t="s">
+        <v>424</v>
+      </c>
+      <c r="F474">
+        <v>4</v>
+      </c>
+      <c r="H474">
+        <v>197</v>
+      </c>
+      <c r="I474">
+        <v>439</v>
+      </c>
+      <c r="J474" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="475" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A475">
+        <v>474</v>
+      </c>
+      <c r="B475" t="s">
+        <v>64</v>
+      </c>
+      <c r="C475">
+        <v>4</v>
+      </c>
+      <c r="D475" t="s">
+        <v>424</v>
+      </c>
+      <c r="F475">
+        <v>4</v>
+      </c>
+      <c r="H475">
+        <v>199</v>
+      </c>
+      <c r="I475">
+        <v>440</v>
+      </c>
+      <c r="J475" t="s">
+        <v>499</v>
       </c>
     </row>
   </sheetData>

--- a/Develop/영상처리.xlsx
+++ b/Develop/영상처리.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1936" uniqueCount="520">
   <si>
     <t>기하와벡터</t>
   </si>
@@ -1577,6 +1577,68 @@
   </si>
   <si>
     <t>54faea9b3eeffce2a5ea906fdd1232a52a55d57d993e5406a572b9a9ea2827d8</t>
+  </si>
+  <si>
+    <t>미적분I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쎈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11de4f654b1d75a62de542a98a1ef49f8299b89da46337fe1a119d5dae12af19</t>
+  </si>
+  <si>
+    <t>60b6838b4c24d35767de5da83b3d82f5732c5bdfa97c594293bff31fbbd944ff</t>
+  </si>
+  <si>
+    <t>c6768ef439d6526d8671d70d7cf04f556cf4af107a25653f9ca1a0535e895f0a</t>
+  </si>
+  <si>
+    <t>7530d067bbbd4f7b59320abbe14f7f2c5632fe09a51a5f331b2da2c3b3131f8f</t>
+  </si>
+  <si>
+    <t>d9ae1969e8eecc2dffbd00d1d6c275b2faba049bf0669b3292d5d881d038eb32</t>
+  </si>
+  <si>
+    <t>2dc2f159b309beb1f5279881a3521083ed378c6a19c9b1d00c77be0d7d30ec28</t>
+  </si>
+  <si>
+    <t>61551cd0123b40c63067beb1300ad1e76690c883b531df26ef554c6d86376701</t>
+  </si>
+  <si>
+    <t>d5c0be71a297dc57cffe721c9af29ef5e79ff14b3275571193aecafa6fb5a962</t>
+  </si>
+  <si>
+    <t>ed435c1a8041640836a673979763c3252b0ecae24f54bdd752d692ed4dc47678</t>
+  </si>
+  <si>
+    <t>f6c52227ad34d1b81257d773b6e3b1783c7bdda55b05c940baa293f4848a7e57</t>
+  </si>
+  <si>
+    <t>071b7750b399adfd87972ae1d3c4aa9bf339a3e6bcde426f6f714f18647cb5cd</t>
+  </si>
+  <si>
+    <t>dfb002943b91d2e55835b42e44c1f0f571acc28c6fb36c1a4ab26c16264763fc</t>
+  </si>
+  <si>
+    <t>94f9e69a155900e92d8b39226385c626fe3043e3348da567602e416fc1da27b7</t>
+  </si>
+  <si>
+    <t>0128d23e7a6e5e16b6770b9ec152a572f82385b66696766a070512a4617f1284</t>
+  </si>
+  <si>
+    <t>5782cd4e8b37727726bd6884a23d9092dbef903279dff7e9586f487c6e839caf</t>
+  </si>
+  <si>
+    <t>5275afc3191522d14b7bab51560f64f4143060686f0dc96685095a6a4e347f19</t>
+  </si>
+  <si>
+    <t>3c8ba8dff0ac2295b36f317c9144053262478486522adc943249677225e58cfc</t>
+  </si>
+  <si>
+    <t>3941989f414fc3193ba3082d72f03ef7b24668a63ca80f2d235f6dff9d7f104b</t>
   </si>
 </sst>
 </file>
@@ -1631,7 +1693,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1640,6 +1702,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1955,11 +2020,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J475"/>
+  <dimension ref="A1:J494"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A457" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A476" sqref="A476"/>
+      <pane ySplit="1" topLeftCell="A477" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B494" sqref="B494"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17290,6 +17355,490 @@
       </c>
       <c r="J475" t="s">
         <v>499</v>
+      </c>
+    </row>
+    <row r="476" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A476">
+        <v>475</v>
+      </c>
+      <c r="B476" t="s">
+        <v>64</v>
+      </c>
+      <c r="C476">
+        <v>4</v>
+      </c>
+      <c r="D476" t="s">
+        <v>424</v>
+      </c>
+      <c r="F476">
+        <v>4</v>
+      </c>
+      <c r="H476">
+        <v>83</v>
+      </c>
+      <c r="I476">
+        <v>441</v>
+      </c>
+      <c r="J476" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="477" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A477">
+        <v>476</v>
+      </c>
+      <c r="B477" t="s">
+        <v>500</v>
+      </c>
+      <c r="C477">
+        <v>3</v>
+      </c>
+      <c r="D477" t="s">
+        <v>501</v>
+      </c>
+      <c r="F477">
+        <v>3</v>
+      </c>
+      <c r="H477">
+        <v>543</v>
+      </c>
+      <c r="I477">
+        <v>442</v>
+      </c>
+      <c r="J477" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="478" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A478">
+        <v>477</v>
+      </c>
+      <c r="B478" t="s">
+        <v>500</v>
+      </c>
+      <c r="C478">
+        <v>3</v>
+      </c>
+      <c r="D478" t="s">
+        <v>501</v>
+      </c>
+      <c r="F478">
+        <v>3</v>
+      </c>
+      <c r="H478">
+        <v>562</v>
+      </c>
+      <c r="I478">
+        <v>443</v>
+      </c>
+      <c r="J478" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="479" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A479">
+        <v>478</v>
+      </c>
+      <c r="B479" t="s">
+        <v>500</v>
+      </c>
+      <c r="C479">
+        <v>3</v>
+      </c>
+      <c r="D479" t="s">
+        <v>501</v>
+      </c>
+      <c r="F479">
+        <v>3</v>
+      </c>
+      <c r="H479">
+        <v>571</v>
+      </c>
+      <c r="I479">
+        <v>444</v>
+      </c>
+      <c r="J479" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="480" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A480">
+        <v>479</v>
+      </c>
+      <c r="B480" t="s">
+        <v>500</v>
+      </c>
+      <c r="C480">
+        <v>3</v>
+      </c>
+      <c r="D480" t="s">
+        <v>501</v>
+      </c>
+      <c r="F480">
+        <v>3</v>
+      </c>
+      <c r="H480">
+        <v>579</v>
+      </c>
+      <c r="I480">
+        <v>445</v>
+      </c>
+      <c r="J480" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="481" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A481">
+        <v>480</v>
+      </c>
+      <c r="B481" t="s">
+        <v>500</v>
+      </c>
+      <c r="C481">
+        <v>3</v>
+      </c>
+      <c r="D481" t="s">
+        <v>501</v>
+      </c>
+      <c r="F481">
+        <v>3</v>
+      </c>
+      <c r="H481">
+        <v>586</v>
+      </c>
+      <c r="I481">
+        <v>446</v>
+      </c>
+      <c r="J481" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="482" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A482">
+        <v>481</v>
+      </c>
+      <c r="B482" t="s">
+        <v>64</v>
+      </c>
+      <c r="C482">
+        <v>4</v>
+      </c>
+      <c r="D482" t="s">
+        <v>424</v>
+      </c>
+      <c r="F482">
+        <v>4</v>
+      </c>
+      <c r="H482">
+        <v>47</v>
+      </c>
+      <c r="I482">
+        <v>447</v>
+      </c>
+      <c r="J482" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="483" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A483">
+        <v>482</v>
+      </c>
+      <c r="B483" t="s">
+        <v>64</v>
+      </c>
+      <c r="C483">
+        <v>4</v>
+      </c>
+      <c r="D483" t="s">
+        <v>424</v>
+      </c>
+      <c r="F483">
+        <v>4</v>
+      </c>
+      <c r="H483">
+        <v>51</v>
+      </c>
+      <c r="I483">
+        <v>448</v>
+      </c>
+      <c r="J483" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="484" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A484">
+        <v>483</v>
+      </c>
+      <c r="B484" t="s">
+        <v>64</v>
+      </c>
+      <c r="C484">
+        <v>4</v>
+      </c>
+      <c r="D484" t="s">
+        <v>424</v>
+      </c>
+      <c r="F484">
+        <v>4</v>
+      </c>
+      <c r="H484">
+        <v>57</v>
+      </c>
+      <c r="I484">
+        <v>449</v>
+      </c>
+      <c r="J484" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="485" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A485">
+        <v>484</v>
+      </c>
+      <c r="B485" t="s">
+        <v>471</v>
+      </c>
+      <c r="C485">
+        <v>3</v>
+      </c>
+      <c r="D485" t="s">
+        <v>453</v>
+      </c>
+      <c r="F485">
+        <v>3</v>
+      </c>
+      <c r="H485">
+        <v>595</v>
+      </c>
+      <c r="I485">
+        <v>450</v>
+      </c>
+      <c r="J485" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="486" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A486">
+        <v>485</v>
+      </c>
+      <c r="B486" t="s">
+        <v>471</v>
+      </c>
+      <c r="C486">
+        <v>3</v>
+      </c>
+      <c r="D486" t="s">
+        <v>453</v>
+      </c>
+      <c r="F486">
+        <v>3</v>
+      </c>
+      <c r="H486">
+        <v>599</v>
+      </c>
+      <c r="I486">
+        <v>451</v>
+      </c>
+      <c r="J486" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="487" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A487">
+        <v>486</v>
+      </c>
+      <c r="B487" t="s">
+        <v>471</v>
+      </c>
+      <c r="C487">
+        <v>3</v>
+      </c>
+      <c r="D487" t="s">
+        <v>453</v>
+      </c>
+      <c r="F487">
+        <v>3</v>
+      </c>
+      <c r="H487">
+        <v>607</v>
+      </c>
+      <c r="I487">
+        <v>452</v>
+      </c>
+      <c r="J487" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="488" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A488">
+        <v>487</v>
+      </c>
+      <c r="B488" t="s">
+        <v>471</v>
+      </c>
+      <c r="C488">
+        <v>3</v>
+      </c>
+      <c r="D488" t="s">
+        <v>453</v>
+      </c>
+      <c r="F488">
+        <v>3</v>
+      </c>
+      <c r="H488">
+        <v>672</v>
+      </c>
+      <c r="I488">
+        <v>453</v>
+      </c>
+      <c r="J488" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="489" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A489" s="3">
+        <v>488</v>
+      </c>
+      <c r="B489" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C489" s="3">
+        <v>6</v>
+      </c>
+      <c r="D489" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="E489" s="3"/>
+      <c r="F489" s="3">
+        <v>24</v>
+      </c>
+      <c r="G489" s="3"/>
+      <c r="H489" s="3">
+        <v>72</v>
+      </c>
+      <c r="I489" s="3">
+        <v>454</v>
+      </c>
+      <c r="J489" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="490" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A490" s="3">
+        <v>489</v>
+      </c>
+      <c r="B490" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C490" s="3">
+        <v>6</v>
+      </c>
+      <c r="D490" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="E490" s="3"/>
+      <c r="F490" s="3">
+        <v>24</v>
+      </c>
+      <c r="G490" s="3"/>
+      <c r="H490" s="3">
+        <v>60</v>
+      </c>
+      <c r="I490" s="3">
+        <v>455</v>
+      </c>
+      <c r="J490" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="491" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A491" s="3">
+        <v>490</v>
+      </c>
+      <c r="B491" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C491" s="3">
+        <v>6</v>
+      </c>
+      <c r="D491" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="E491" s="3"/>
+      <c r="F491" s="3">
+        <v>24</v>
+      </c>
+      <c r="G491" s="3"/>
+      <c r="H491" s="3">
+        <v>58</v>
+      </c>
+      <c r="I491" s="3">
+        <v>456</v>
+      </c>
+      <c r="J491" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="492" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A492" s="3">
+        <v>491</v>
+      </c>
+      <c r="B492" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C492" s="3">
+        <v>6</v>
+      </c>
+      <c r="D492" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="E492" s="3"/>
+      <c r="F492" s="3">
+        <v>24</v>
+      </c>
+      <c r="G492" s="3"/>
+      <c r="H492" s="3">
+        <v>56</v>
+      </c>
+      <c r="I492" s="3">
+        <v>457</v>
+      </c>
+      <c r="J492" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="493" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A493" s="3">
+        <v>492</v>
+      </c>
+      <c r="B493" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C493" s="3">
+        <v>6</v>
+      </c>
+      <c r="D493" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="E493" s="3"/>
+      <c r="F493" s="3">
+        <v>24</v>
+      </c>
+      <c r="G493" s="3"/>
+      <c r="H493" s="3">
+        <v>52</v>
+      </c>
+      <c r="I493" s="3">
+        <v>458</v>
+      </c>
+      <c r="J493" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="494" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A494">
+        <f t="shared" ref="A483:A494" si="7">A493+1</f>
+        <v>493</v>
       </c>
     </row>
   </sheetData>
